--- a/luoghi.xlsx
+++ b/luoghi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f9941280cf289a8/Desktop/dqmj3p/DQMJ3P-IT-FanTranslation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C345E84C-8EDB-426A-8ABC-73029264569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C345E84C-8EDB-426A-8ABC-73029264569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{810FB1CE-6415-456D-9F7F-53A0F0238FC3}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="4305" windowWidth="21075" windowHeight="15690" xr2:uid="{752A97AD-26FA-4735-966A-490CB2F8D93B}"/>
+    <workbookView xWindow="7335" yWindow="5340" windowWidth="12570" windowHeight="14505" xr2:uid="{752A97AD-26FA-4735-966A-490CB2F8D93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>Silent Meadows</t>
   </si>
@@ -90,6 +90,264 @@
   </si>
   <si>
     <t>Mondo Spirituale</t>
+  </si>
+  <si>
+    <t>Test 0 (pendio)</t>
+  </si>
+  <si>
+    <t>Test 1 (blocco)</t>
+  </si>
+  <si>
+    <t>Test 2 (la Grotta Azzurra)</t>
+  </si>
+  <si>
+    <t>Test 3 (pianura)</t>
+  </si>
+  <si>
+    <t>Città Perduta - Modello</t>
+  </si>
+  <si>
+    <t>Mappa del Mondo</t>
+  </si>
+  <si>
+    <t>come Mappa</t>
+  </si>
+  <si>
+    <t>Parco Boscoso</t>
+  </si>
+  <si>
+    <t>Paradiso Distrutto</t>
+  </si>
+  <si>
+    <t>Edificio Centrale</t>
+  </si>
+  <si>
+    <t>Edificio Centrale - B1</t>
+  </si>
+  <si>
+    <t>Edificio Centrale - B2</t>
+  </si>
+  <si>
+    <t>Giardino dei Senzavita</t>
+  </si>
+  <si>
+    <t>Centrale Elettrica</t>
+  </si>
+  <si>
+    <t>Parco Neon</t>
+  </si>
+  <si>
+    <t>Via Spiritica Violenta</t>
+  </si>
+  <si>
+    <t>Parco Polare</t>
+  </si>
+  <si>
+    <t>Cimitero Congelato</t>
+  </si>
+  <si>
+    <t>Arca di Ferro</t>
+  </si>
+  <si>
+    <t>come Tundra Cupa</t>
+  </si>
+  <si>
+    <t>Corsa all'Oro</t>
+  </si>
+  <si>
+    <t>come Vulcano Ardente</t>
+  </si>
+  <si>
+    <t>Parco Lega</t>
+  </si>
+  <si>
+    <t>come Bastiglia di Ferro</t>
+  </si>
+  <si>
+    <t>Parco Magma</t>
+  </si>
+  <si>
+    <t>Base Segreta della Resistenza</t>
+  </si>
+  <si>
+    <t>come Nucleo</t>
+  </si>
+  <si>
+    <t>Aspetto del Nucleo</t>
+  </si>
+  <si>
+    <t>Ground Zero</t>
+  </si>
+  <si>
+    <t>Piazza Wi-Fi</t>
+  </si>
+  <si>
+    <t>Mondo Parallelo</t>
+  </si>
+  <si>
+    <t>Colosseo Virtuale - Lobby</t>
+  </si>
+  <si>
+    <t>Colosseo Virtuale</t>
+  </si>
+  <si>
+    <t>Pedal al metallo</t>
+  </si>
+  <si>
+    <t>Sala del Trono</t>
+  </si>
+  <si>
+    <t>Paradiso</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Villaggio Incarnus</t>
+  </si>
+  <si>
+    <t>Caverna Ventosa</t>
+  </si>
+  <si>
+    <t>Tunnel Paludoso</t>
+  </si>
+  <si>
+    <t>Statua Arrugginita di Incarnus</t>
+  </si>
+  <si>
+    <t>Cancello Fantasma</t>
+  </si>
+  <si>
+    <t>Madullaj Mahal</t>
+  </si>
+  <si>
+    <t>Test 0 (slope)</t>
+  </si>
+  <si>
+    <t>Test 1 (block)</t>
+  </si>
+  <si>
+    <t>Test 2 (the Blue Grotto)</t>
+  </si>
+  <si>
+    <t>Test 3 (plain)</t>
+  </si>
+  <si>
+    <t>Fallen City - Model</t>
+  </si>
+  <si>
+    <t>World Map</t>
+  </si>
+  <si>
+    <t>as Map</t>
+  </si>
+  <si>
+    <t>Wood Park</t>
+  </si>
+  <si>
+    <t>Wrecked Paradise</t>
+  </si>
+  <si>
+    <t>Centre Building</t>
+  </si>
+  <si>
+    <t>Centre Building - B1</t>
+  </si>
+  <si>
+    <t>Centre Building - B2</t>
+  </si>
+  <si>
+    <t>Undead Garden</t>
+  </si>
+  <si>
+    <t>Power Plant</t>
+  </si>
+  <si>
+    <t>Neon Park</t>
+  </si>
+  <si>
+    <t>Violent Spirit Road</t>
+  </si>
+  <si>
+    <t>Polar Park</t>
+  </si>
+  <si>
+    <t>Frozen Graveyard</t>
+  </si>
+  <si>
+    <t>Iron Ark</t>
+  </si>
+  <si>
+    <t>as Grim Tundra</t>
+  </si>
+  <si>
+    <t>Gold Rush</t>
+  </si>
+  <si>
+    <t>as Fiery Volcano</t>
+  </si>
+  <si>
+    <t>Alloy Park</t>
+  </si>
+  <si>
+    <t>as Darkiron Bastille</t>
+  </si>
+  <si>
+    <t>Magma Park</t>
+  </si>
+  <si>
+    <t>Resistance Secret Base</t>
+  </si>
+  <si>
+    <t>as Core</t>
+  </si>
+  <si>
+    <t>Core Appearance</t>
+  </si>
+  <si>
+    <t>Wi-Fi Square</t>
+  </si>
+  <si>
+    <t>Parallel World</t>
+  </si>
+  <si>
+    <t>Virtual Colosseum - Lobby</t>
+  </si>
+  <si>
+    <t>Virtual Colosseum</t>
+  </si>
+  <si>
+    <t>Pedal to the Metal</t>
+  </si>
+  <si>
+    <t>Throne Room</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Incarnus Village</t>
+  </si>
+  <si>
+    <t>Windy Cavern</t>
+  </si>
+  <si>
+    <t>Wetland Tunnel</t>
+  </si>
+  <si>
+    <t>Rusty Incarnus Statue</t>
+  </si>
+  <si>
+    <t>Phantom Gate</t>
   </si>
 </sst>
 </file>
@@ -461,88 +719,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8C2770-6321-463B-9886-4C57D3F33D4E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B22" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
